--- a/sample/sampledeta.xlsx
+++ b/sample/sampledeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ZZ_private\OperationRecordSite\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417AE85C-708F-4EA9-BE8D-36C5C1D3D4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5666FD05-30FC-43F9-A576-1816DEAB3655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,15 +224,6 @@
     <t>フォローアップ</t>
   </si>
   <si>
-    <t>GIG</t>
-  </si>
-  <si>
-    <t>情シス</t>
-  </si>
-  <si>
-    <t>採用PJ</t>
-  </si>
-  <si>
     <t>メンタリング</t>
   </si>
   <si>
@@ -331,6 +322,30 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内活動1</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内活動2</t>
+    <rPh sb="0" eb="4">
+      <t>シャナイカツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内活動3</t>
+    <rPh sb="0" eb="4">
+      <t>シャナイカツドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1702,6 +1717,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1731,21 +1761,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2950,12 +2965,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="124">
+      <c r="B1" s="129">
         <f>合計!B1</f>
         <v>45505</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
@@ -3392,7 +3407,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -3542,7 +3557,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -3898,7 +3913,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="40"/>
@@ -3984,11 +3999,11 @@
     <row r="20" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="127"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="40">
         <v>0.25</v>
       </c>
@@ -4058,11 +4073,11 @@
     <row r="21" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
+      <c r="D21" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="40"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -4158,11 +4173,11 @@
     <row r="23" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="D23" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="40"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -5632,11 +5647,11 @@
     <row r="58" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B58" s="1"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="121" t="s">
+      <c r="D58" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="122"/>
-      <c r="F58" s="123"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="128"/>
       <c r="G58" s="40"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
@@ -6089,8 +6104,8 @@
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="24"/>
-      <c r="E68" s="128" t="s">
-        <v>28</v>
+      <c r="E68" s="118" t="s">
+        <v>25</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="52">
@@ -6224,7 +6239,7 @@
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B69" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" s="70"/>
       <c r="D69" s="5"/>
@@ -6269,7 +6284,7 @@
     <row r="70" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B70" s="1"/>
       <c r="C70" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -6313,11 +6328,11 @@
     <row r="71" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B71" s="1"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="120"/>
+      <c r="D71" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="124"/>
+      <c r="F71" s="125"/>
       <c r="G71" s="61">
         <v>3.5</v>
       </c>
@@ -6373,11 +6388,11 @@
     <row r="72" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B72" s="1"/>
       <c r="C72" s="12"/>
-      <c r="D72" s="118" t="s">
+      <c r="D72" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="119"/>
-      <c r="F72" s="120"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="125"/>
       <c r="G72" s="61"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
@@ -6547,7 +6562,7 @@
     <row r="76" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
       <c r="C76" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
@@ -7351,11 +7366,11 @@
     <row r="95" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B95" s="1"/>
       <c r="C95" s="12"/>
-      <c r="D95" s="118" t="s">
+      <c r="D95" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E95" s="119"/>
-      <c r="F95" s="120"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="125"/>
       <c r="G95" s="61"/>
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
@@ -7651,8 +7666,8 @@
       </c>
     </row>
     <row r="102" spans="2:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="129" t="s">
-        <v>29</v>
+      <c r="E102" s="119" t="s">
+        <v>26</v>
       </c>
       <c r="G102" s="42">
         <f>SUM(G69:G101)</f>
@@ -7784,11 +7799,11 @@
       </c>
     </row>
     <row r="103" spans="2:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="128" t="s">
+      <c r="B103" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
       <c r="E103" s="23"/>
       <c r="F103" s="24"/>
       <c r="G103" s="42">
@@ -7992,13 +8007,13 @@
       </c>
     </row>
     <row r="106" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="F106" s="131" t="s">
-        <v>24</v>
+      <c r="F106" s="121" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="F107" s="131" t="s">
-        <v>25</v>
+      <c r="F107" s="121" t="s">
+        <v>38</v>
       </c>
       <c r="K107">
         <v>0.5</v>
@@ -8017,8 +8032,8 @@
       </c>
     </row>
     <row r="108" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="F108" s="131" t="s">
-        <v>26</v>
+      <c r="F108" s="121" t="s">
+        <v>39</v>
       </c>
       <c r="K108">
         <v>0.5</v>
@@ -8049,8 +8064,8 @@
       </c>
     </row>
     <row r="109" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="F109" s="132" t="s">
-        <v>27</v>
+      <c r="F109" s="122" t="s">
+        <v>24</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -8196,11 +8211,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="127">
+      <c r="B1" s="132">
         <v>45505</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
@@ -11027,9 +11042,9 @@
     <row r="23" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="99" t="e">
         <f>#REF!+#REF!+#REF!+澤村!G23+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
@@ -17102,7 +17117,7 @@
       <c r="C68" s="23"/>
       <c r="D68" s="24"/>
       <c r="E68" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="103" t="e">
@@ -23321,26 +23336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bdefc92d-6f58-4524-bb28-f1b480f60483">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004E27ADBFE04931429B3807C598390BBC" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a611079a0ce8901c9e6217176c5d15f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdefc92d-6f58-4524-bb28-f1b480f60483" xmlns:ns3="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dde23b244f6b93a529dc507b78d43d3e" ns2:_="" ns3:_="">
     <xsd:import namespace="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
@@ -23563,26 +23558,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6F5058-E4DF-4651-A40C-D7E37FC01A03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bdefc92d-6f58-4524-bb28-f1b480f60483">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{324357F6-A6B1-41A7-9038-9CB0F9DD6E07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
-    <ds:schemaRef ds:uri="532ee1ba-fa29-4515-a7e6-aa3f90f2f253"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C017B0-5CE6-4C4B-ABF0-B7BCF687E918}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23601,6 +23597,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{324357F6-A6B1-41A7-9038-9CB0F9DD6E07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
+    <ds:schemaRef ds:uri="532ee1ba-fa29-4515-a7e6-aa3f90f2f253"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6F5058-E4DF-4651-A40C-D7E37FC01A03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" enabled="0" method="" siteId="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" removed="1"/>

--- a/sample/sampledeta.xlsx
+++ b/sample/sampledeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ZZ_private\OperationRecordSite\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5666FD05-30FC-43F9-A576-1816DEAB3655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145FDF1F-5AC6-4236-BEF7-A482A961BE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23336,6 +23336,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bdefc92d-6f58-4524-bb28-f1b480f60483">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004E27ADBFE04931429B3807C598390BBC" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a611079a0ce8901c9e6217176c5d15f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdefc92d-6f58-4524-bb28-f1b480f60483" xmlns:ns3="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dde23b244f6b93a529dc507b78d43d3e" ns2:_="" ns3:_="">
     <xsd:import namespace="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
@@ -23558,27 +23578,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bdefc92d-6f58-4524-bb28-f1b480f60483">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="532ee1ba-fa29-4515-a7e6-aa3f90f2f253" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6F5058-E4DF-4651-A40C-D7E37FC01A03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{324357F6-A6B1-41A7-9038-9CB0F9DD6E07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
+    <ds:schemaRef ds:uri="532ee1ba-fa29-4515-a7e6-aa3f90f2f253"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C017B0-5CE6-4C4B-ABF0-B7BCF687E918}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23597,25 +23616,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{324357F6-A6B1-41A7-9038-9CB0F9DD6E07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdefc92d-6f58-4524-bb28-f1b480f60483"/>
-    <ds:schemaRef ds:uri="532ee1ba-fa29-4515-a7e6-aa3f90f2f253"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6F5058-E4DF-4651-A40C-D7E37FC01A03}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" enabled="0" method="" siteId="{f54277c9-dafe-44aa-85a4-73d5c7c52450}" removed="1"/>
